--- a/medicine/Psychotrope/Virginia_Slims/Virginia_Slims.xlsx
+++ b/medicine/Psychotrope/Virginia_Slims/Virginia_Slims.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Virginia Slims (VS), littéralement « fines de Virginie[1] », est une marque de cigarettes à destination des jeunes femmes, lancée aux États-Unis en 1968 par l'entreprise Philip Morris. 
-Avec son slogan « You've come a long way, baby[2] », Virginia Slims s'est attachée à développer une image rassurante de ses produits[3] et à véhiculer des valeurs d'émancipation féminine et de liberté, mais aussi de minceur (« slim ») et d'élégance. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Virginia Slims (VS), littéralement « fines de Virginie », est une marque de cigarettes à destination des jeunes femmes, lancée aux États-Unis en 1968 par l'entreprise Philip Morris. 
+Avec son slogan « You've come a long way, baby », Virginia Slims s'est attachée à développer une image rassurante de ses produits et à véhiculer des valeurs d'émancipation féminine et de liberté, mais aussi de minceur (« slim ») et d'élégance. 
 Fidèle à sa stratégie mercatique et pour mieux atteindre sa cible (les 18-35 ans), la marque a financé, en septembre 1970, les premiers pas du circuit professionnel de tennis féminin, futur WTA Tour, dont elle a ensuite accompagné l'essor international pendant vingt ans. Accusée par les pouvoirs publics américains d'encourager le tabagisme — sinon l'anorexie — chez les adolescentes, elle s'est vue mise à l'écart au milieu des années 1990, au bénéfice de partenaires plus recommandables.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Dans les médias</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Virginia Slims est la dernière marque de cigarettes à avoir diffusé un spot publicitaire sur une chaîne de télévision américaine, le 31 décembre 1971 peu avant minuit sur NBC.
 You've Come a Long Way, Baby est le nom du deuxième album du musicien de musique électronique Fatboy Slim, sorti en 1998.
